--- a/10150_0270.xlsx
+++ b/10150_0270.xlsx
@@ -5742,756 +5742,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId225"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>586</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="226" name="Image 226" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId226"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>586</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="227" name="Image 227" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId227"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>586</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="228" name="Image 228" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId228"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>586</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="229" name="Image 229" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId229"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>586</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="230" name="Image 230" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId230"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="231" name="Image 231" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId231"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="232" name="Image 232" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId232"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="233" name="Image 233" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId233"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="234" name="Image 234" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId234"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="235" name="Image 235" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId235"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="236" name="Image 236" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId236"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="237" name="Image 237" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId237"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="238" name="Image 238" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId238"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="239" name="Image 239" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId239"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="240" name="Image 240" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId240"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="241" name="Image 241" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId241"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="242" name="Image 242" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId242"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="243" name="Image 243" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId243"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="244" name="Image 244" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId244"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="245" name="Image 245" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId245"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>638</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="246" name="Image 246" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId246"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>638</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="247" name="Image 247" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId247"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>638</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="248" name="Image 248" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId248"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>638</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="249" name="Image 249" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId249"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>638</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="250" name="Image 250" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId250"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>651</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="251" name="Image 251" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId251"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>651</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="252" name="Image 252" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId252"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>651</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="253" name="Image 253" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId253"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>651</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="254" name="Image 254" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId254"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>651</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="255" name="Image 255" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId255"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6794,7 +6044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6938,14 +6188,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101.9214222_3.0975440_10150_0270_3</t>
+          <t>102.0294670_2.9753619_10150_0270_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.9214222</v>
+        <v>102.029467</v>
       </c>
       <c r="C4" t="n">
-        <v>3.097544</v>
+        <v>2.9753619</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -6954,41 +6204,41 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cuts/101.9214222,3.0975440_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0294670,2.9753619_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>cuts/101.9214222,3.0975440_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0294670,2.9753619_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>cuts/101.9214222,3.0975440_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0294670,2.9753619_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cuts/101.9214222,3.0975440_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0294670,2.9753619_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cuts/101.9214222,3.0975440_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0294670,2.9753619_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>102.0294670_2.9753619_10150_0270_4</t>
+          <t>101.3184548_2.8876000_10150_0270_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.029467</v>
+        <v>101.3184548</v>
       </c>
       <c r="C5" t="n">
-        <v>2.9753619</v>
+        <v>2.8876</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6997,41 +6247,41 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cuts/102.0294670,2.9753619_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.3184548,2.8876000_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>cuts/102.0294670,2.9753619_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.3184548,2.8876000_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>cuts/102.0294670,2.9753619_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.3184548,2.8876000_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cuts/102.0294670,2.9753619_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.3184548,2.8876000_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cuts/102.0294670,2.9753619_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.3184548,2.8876000_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>101.3184548_2.8876000_10150_0270_5</t>
+          <t>101.2881732_2.7488984_10150_0270_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.3184548</v>
+        <v>101.2881732</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8876</v>
+        <v>2.7488984</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -7040,41 +6290,41 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cuts/101.3184548,2.8876000_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.2881732,2.7488984_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>cuts/101.3184548,2.8876000_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.2881732,2.7488984_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>cuts/101.3184548,2.8876000_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.2881732,2.7488984_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cuts/101.3184548,2.8876000_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.2881732,2.7488984_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cuts/101.3184548,2.8876000_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.2881732,2.7488984_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>101.2881732_2.7488984_10150_0270_6</t>
+          <t>101.3385569_2.8037395_10150_0270_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.2881732</v>
+        <v>101.3385569</v>
       </c>
       <c r="C7" t="n">
-        <v>2.7488984</v>
+        <v>2.8037395</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -7083,41 +6333,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cuts/101.2881732,2.7488984_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.3385569,2.8037395_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>cuts/101.2881732,2.7488984_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.3385569,2.8037395_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>cuts/101.2881732,2.7488984_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.3385569,2.8037395_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cuts/101.2881732,2.7488984_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.3385569,2.8037395_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cuts/101.2881732,2.7488984_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.3385569,2.8037395_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>101.3385569_2.8037395_10150_0270_7</t>
+          <t>101.4871072_2.2408834_10150_0270_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.3385569</v>
+        <v>101.4871072</v>
       </c>
       <c r="C8" t="n">
-        <v>2.8037395</v>
+        <v>2.2408834</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -7126,41 +6376,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cuts/101.3385569,2.8037395_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4871072,2.2408834_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cuts/101.3385569,2.8037395_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4871072,2.2408834_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cuts/101.3385569,2.8037395_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4871072,2.2408834_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cuts/101.3385569,2.8037395_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4871072,2.2408834_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cuts/101.3385569,2.8037395_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4871072,2.2408834_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>101.4871072_2.2408834_10150_0270_8</t>
+          <t>101.4650908_2.2569459_10150_0270_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.4871072</v>
+        <v>101.4650908</v>
       </c>
       <c r="C9" t="n">
-        <v>2.2408834</v>
+        <v>2.2569459</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -7169,41 +6419,41 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cuts/101.4871072,2.2408834_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4650908,2.2569459_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cuts/101.4871072,2.2408834_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4650908,2.2569459_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>cuts/101.4871072,2.2408834_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4650908,2.2569459_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cuts/101.4871072,2.2408834_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4650908,2.2569459_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cuts/101.4871072,2.2408834_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4650908,2.2569459_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>101.4650908_2.2569459_10150_0270_9</t>
+          <t>101.4471628_2.2637489_10150_0270_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.4650908</v>
+        <v>101.4471628</v>
       </c>
       <c r="C10" t="n">
-        <v>2.2569459</v>
+        <v>2.2637489</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -7212,41 +6462,41 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cuts/101.4650908,2.2569459_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4471628,2.2637489_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cuts/101.4650908,2.2569459_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4471628,2.2637489_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cuts/101.4650908,2.2569459_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4471628,2.2637489_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cuts/101.4650908,2.2569459_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4471628,2.2637489_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cuts/101.4650908,2.2569459_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4471628,2.2637489_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>101.4471628_2.2637489_10150_0270_10</t>
+          <t>101.5779798_2.8545142_10150_0270_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.4471628</v>
+        <v>101.5779798</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2637489</v>
+        <v>2.8545142</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -7255,41 +6505,41 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cuts/101.4471628,2.2637489_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5779798,2.8545142_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cuts/101.4471628,2.2637489_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5779798,2.8545142_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cuts/101.4471628,2.2637489_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5779798,2.8545142_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cuts/101.4471628,2.2637489_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5779798,2.8545142_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cuts/101.4471628,2.2637489_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5779798,2.8545142_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>101.5779798_2.8545142_10150_0270_11</t>
+          <t>100.9992993_2.9361912_10150_0270_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.5779798</v>
+        <v>100.9992993</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8545142</v>
+        <v>2.9361912</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -7298,41 +6548,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/101.5779798,2.8545142_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/100.9992993,2.9361912_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/101.5779798,2.8545142_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/100.9992993,2.9361912_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/101.5779798,2.8545142_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/100.9992993,2.9361912_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/101.5779798,2.8545142_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/100.9992993,2.9361912_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/101.5779798,2.8545142_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/100.9992993,2.9361912_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>100.9992993_2.9361912_10150_0270_12</t>
+          <t>101.7508663_2.7223908_10150_0270_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.9992993</v>
+        <v>101.7508663</v>
       </c>
       <c r="C13" t="n">
-        <v>2.9361912</v>
+        <v>2.7223908</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -7341,41 +6591,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/100.9992993,2.9361912_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.7508663,2.7223908_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/100.9992993,2.9361912_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.7508663,2.7223908_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/100.9992993,2.9361912_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.7508663,2.7223908_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/100.9992993,2.9361912_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.7508663,2.7223908_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/100.9992993,2.9361912_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.7508663,2.7223908_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>101.0177674_3.2457972_10150_0270_13</t>
+          <t>101.7205464_2.5503922_10150_0270_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.0177674</v>
+        <v>101.7205464</v>
       </c>
       <c r="C14" t="n">
-        <v>3.2457972</v>
+        <v>2.5503922</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -7384,41 +6634,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/101.0177674,3.2457972_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.7205464,2.5503922_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/101.0177674,3.2457972_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.7205464,2.5503922_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/101.0177674,3.2457972_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.7205464,2.5503922_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/101.0177674,3.2457972_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.7205464,2.5503922_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/101.0177674,3.2457972_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.7205464,2.5503922_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>101.7508663_2.7223908_10150_0270_14</t>
+          <t>101.2694750_2.9408816_10150_0270_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.7508663</v>
+        <v>101.269475</v>
       </c>
       <c r="C15" t="n">
-        <v>2.7223908</v>
+        <v>2.9408816</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -7427,41 +6677,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/101.7508663,2.7223908_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.2694750,2.9408816_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/101.7508663,2.7223908_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.2694750,2.9408816_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/101.7508663,2.7223908_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.2694750,2.9408816_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/101.7508663,2.7223908_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.2694750,2.9408816_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/101.7508663,2.7223908_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.2694750,2.9408816_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>101.7205464_2.5503922_10150_0270_15</t>
+          <t>101.4613825_2.8667681_10150_0270_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.7205464</v>
+        <v>101.4613825</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5503922</v>
+        <v>2.8667681</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7470,41 +6720,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/101.7205464,2.5503922_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4613825,2.8667681_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/101.7205464,2.5503922_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4613825,2.8667681_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/101.7205464,2.5503922_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4613825,2.8667681_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/101.7205464,2.5503922_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4613825,2.8667681_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/101.7205464,2.5503922_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4613825,2.8667681_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>101.2694750_2.9408816_10150_0270_16</t>
+          <t>101.4309978_2.3688916_10150_0270_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.269475</v>
+        <v>101.4309978</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9408816</v>
+        <v>2.3688916</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -7513,41 +6763,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/101.2694750,2.9408816_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4309978,2.3688916_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/101.2694750,2.9408816_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4309978,2.3688916_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/101.2694750,2.9408816_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4309978,2.3688916_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/101.2694750,2.9408816_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4309978,2.3688916_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/101.2694750,2.9408816_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4309978,2.3688916_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>101.4613825_2.8667681_10150_0270_17</t>
+          <t>101.8623914_2.8355202_10150_0270_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.4613825</v>
+        <v>101.8623914</v>
       </c>
       <c r="C18" t="n">
-        <v>2.8667681</v>
+        <v>2.8355202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -7556,41 +6806,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/101.4613825,2.8667681_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.8623914,2.8355202_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/101.4613825,2.8667681_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8623914,2.8355202_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/101.4613825,2.8667681_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8623914,2.8355202_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/101.4613825,2.8667681_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8623914,2.8355202_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/101.4613825,2.8667681_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8623914,2.8355202_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>101.6316739_3.1260532_10150_0270_18</t>
+          <t>101.8926369_2.8564578_10150_0270_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.6316739</v>
+        <v>101.8926369</v>
       </c>
       <c r="C19" t="n">
-        <v>3.1260532</v>
+        <v>2.8564578</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -7599,41 +6849,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/101.6316739,3.1260532_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.8926369,2.8564578_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/101.6316739,3.1260532_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8926369,2.8564578_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/101.6316739,3.1260532_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8926369,2.8564578_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/101.6316739,3.1260532_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8926369,2.8564578_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/101.6316739,3.1260532_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8926369,2.8564578_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>101.7809287_3.1650095_10150_0270_19</t>
+          <t>101.5869932_2.8851802_10150_0270_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.7809287</v>
+        <v>101.5869932</v>
       </c>
       <c r="C20" t="n">
-        <v>3.1650095</v>
+        <v>2.8851802</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -7642,41 +6892,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/101.7809287,3.1650095_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5869932,2.8851802_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/101.7809287,3.1650095_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5869932,2.8851802_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/101.7809287,3.1650095_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5869932,2.8851802_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/101.7809287,3.1650095_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5869932,2.8851802_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/101.7809287,3.1650095_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5869932,2.8851802_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>101.4309978_2.3688916_10150_0270_20</t>
+          <t>101.5257473_2.7957830_10150_0270_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.4309978</v>
+        <v>101.5257473</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3688916</v>
+        <v>2.795783</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -7685,41 +6935,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/101.4309978,2.3688916_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5257473,2.7957830_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/101.4309978,2.3688916_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5257473,2.7957830_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/101.4309978,2.3688916_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5257473,2.7957830_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/101.4309978,2.3688916_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5257473,2.7957830_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/101.4309978,2.3688916_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5257473,2.7957830_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>101.8623914_2.8355202_10150_0270_21</t>
+          <t>101.3489060_2.7769071_10150_0270_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.8623914</v>
+        <v>101.348906</v>
       </c>
       <c r="C22" t="n">
-        <v>2.8355202</v>
+        <v>2.7769071</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -7728,41 +6978,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/101.8623914,2.8355202_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.3489060,2.7769071_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/101.8623914,2.8355202_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.3489060,2.7769071_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/101.8623914,2.8355202_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.3489060,2.7769071_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/101.8623914,2.8355202_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.3489060,2.7769071_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/101.8623914,2.8355202_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.3489060,2.7769071_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>101.8926369_2.8564578_10150_0270_22</t>
+          <t>101.4571977_2.8392494_10150_0270_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.8926369</v>
+        <v>101.4571977</v>
       </c>
       <c r="C23" t="n">
-        <v>2.8564578</v>
+        <v>2.8392494</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -7771,41 +7021,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/101.8926369,2.8564578_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4571977,2.8392494_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/101.8926369,2.8564578_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4571977,2.8392494_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/101.8926369,2.8564578_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4571977,2.8392494_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/101.8926369,2.8564578_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4571977,2.8392494_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/101.8926369,2.8564578_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4571977,2.8392494_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>101.5869932_2.8851802_10150_0270_23</t>
+          <t>101.3237074_2.7939040_10150_0270_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.5869932</v>
+        <v>101.3237074</v>
       </c>
       <c r="C24" t="n">
-        <v>2.8851802</v>
+        <v>2.793904</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -7814,41 +7064,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/101.5869932,2.8851802_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.3237074,2.7939040_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/101.5869932,2.8851802_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.3237074,2.7939040_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/101.5869932,2.8851802_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.3237074,2.7939040_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/101.5869932,2.8851802_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.3237074,2.7939040_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/101.5869932,2.8851802_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.3237074,2.7939040_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>101.5257473_2.7957830_10150_0270_24</t>
+          <t>101.2065033_3.0625480_10150_0270_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.5257473</v>
+        <v>101.2065033</v>
       </c>
       <c r="C25" t="n">
-        <v>2.795783</v>
+        <v>3.062548</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -7857,41 +7107,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/101.5257473,2.7957830_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.2065033,3.0625480_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/101.5257473,2.7957830_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.2065033,3.0625480_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/101.5257473,2.7957830_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.2065033,3.0625480_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/101.5257473,2.7957830_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.2065033,3.0625480_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/101.5257473,2.7957830_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.2065033,3.0625480_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>101.3489060_2.7769071_10150_0270_25</t>
+          <t>102.0380896_2.0966820_10150_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.348906</v>
+        <v>102.0380896</v>
       </c>
       <c r="C26" t="n">
-        <v>2.7769071</v>
+        <v>2.096682</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -7900,41 +7150,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/101.3489060,2.7769071_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0380896,2.0966820_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/101.3489060,2.7769071_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0380896,2.0966820_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/101.3489060,2.7769071_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0380896,2.0966820_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/101.3489060,2.7769071_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0380896,2.0966820_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/101.3489060,2.7769071_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0380896,2.0966820_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>101.4571977_2.8392494_10150_0270_26</t>
+          <t>101.5978543_2.3024406_10150_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.4571977</v>
+        <v>101.5978543</v>
       </c>
       <c r="C27" t="n">
-        <v>2.8392494</v>
+        <v>2.3024406</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7943,41 +7193,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/101.4571977,2.8392494_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5978543,2.3024406_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/101.4571977,2.8392494_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5978543,2.3024406_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/101.4571977,2.8392494_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5978543,2.3024406_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/101.4571977,2.8392494_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5978543,2.3024406_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/101.4571977,2.8392494_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5978543,2.3024406_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>101.3237074_2.7939040_10150_0270_27</t>
+          <t>101.5198769_2.3082777_10150_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.3237074</v>
+        <v>101.5198769</v>
       </c>
       <c r="C28" t="n">
-        <v>2.793904</v>
+        <v>2.3082777</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7986,41 +7236,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/101.3237074,2.7939040_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5198769,2.3082777_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/101.3237074,2.7939040_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5198769,2.3082777_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/101.3237074,2.7939040_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5198769,2.3082777_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/101.3237074,2.7939040_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5198769,2.3082777_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/101.3237074,2.7939040_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5198769,2.3082777_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>101.2065033_3.0625480_10150_0270_28</t>
+          <t>101.4391987_2.3761373_10150_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.2065033</v>
+        <v>101.4391987</v>
       </c>
       <c r="C29" t="n">
-        <v>3.062548</v>
+        <v>2.3761373</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -8029,41 +7279,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/101.2065033,3.0625480_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4391987,2.3761373_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/101.2065033,3.0625480_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4391987,2.3761373_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/101.2065033,3.0625480_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4391987,2.3761373_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/101.2065033,3.0625480_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4391987,2.3761373_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/101.2065033,3.0625480_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4391987,2.3761373_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>102.0380896_2.0966820_10150_0270_29</t>
+          <t>101.8698737_2.8526940_10150_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.0380896</v>
+        <v>101.8698737</v>
       </c>
       <c r="C30" t="n">
-        <v>2.096682</v>
+        <v>2.852694</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -8072,41 +7322,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/102.0380896,2.0966820_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.8698737,2.8526940_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/102.0380896,2.0966820_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8698737,2.8526940_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/102.0380896,2.0966820_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8698737,2.8526940_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/102.0380896,2.0966820_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8698737,2.8526940_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/102.0380896,2.0966820_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8698737,2.8526940_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>101.5978543_2.3024406_10150_0270_30</t>
+          <t>101.9133864_2.7320132_10150_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.5978543</v>
+        <v>101.9133864</v>
       </c>
       <c r="C31" t="n">
-        <v>2.3024406</v>
+        <v>2.7320132</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -8115,41 +7365,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/101.5978543,2.3024406_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.9133864,2.7320132_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/101.5978543,2.3024406_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9133864,2.7320132_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/101.5978543,2.3024406_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9133864,2.7320132_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/101.5978543,2.3024406_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9133864,2.7320132_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/101.5978543,2.3024406_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9133864,2.7320132_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>101.5198769_2.3082777_10150_0270_31</t>
+          <t>102.0388666_2.7414643_10150_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.5198769</v>
+        <v>102.0388666</v>
       </c>
       <c r="C32" t="n">
-        <v>2.3082777</v>
+        <v>2.7414643</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8158,41 +7408,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/101.5198769,2.3082777_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0388666,2.7414643_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/101.5198769,2.3082777_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0388666,2.7414643_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/101.5198769,2.3082777_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0388666,2.7414643_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/101.5198769,2.3082777_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0388666,2.7414643_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/101.5198769,2.3082777_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0388666,2.7414643_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>101.4391987_2.3761373_10150_0270_32</t>
+          <t>101.9837149_2.5186540_10150_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.4391987</v>
+        <v>101.9837149</v>
       </c>
       <c r="C33" t="n">
-        <v>2.3761373</v>
+        <v>2.518654</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8201,41 +7451,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/101.4391987,2.3761373_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.9837149,2.5186540_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/101.4391987,2.3761373_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9837149,2.5186540_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/101.4391987,2.3761373_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9837149,2.5186540_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/101.4391987,2.3761373_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9837149,2.5186540_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/101.4391987,2.3761373_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9837149,2.5186540_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>101.8698737_2.8526940_10150_0270_33</t>
+          <t>101.9672428_2.1988270_10150_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.8698737</v>
+        <v>101.9672428</v>
       </c>
       <c r="C34" t="n">
-        <v>2.852694</v>
+        <v>2.198827</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -8244,41 +7494,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/101.8698737,2.8526940_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.9672428,2.1988270_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/101.8698737,2.8526940_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9672428,2.1988270_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/101.8698737,2.8526940_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9672428,2.1988270_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/101.8698737,2.8526940_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9672428,2.1988270_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/101.8698737,2.8526940_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9672428,2.1988270_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>101.9133864_2.7320132_10150_0270_34</t>
+          <t>101.9561918_2.0836645_10150_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.9133864</v>
+        <v>101.9561918</v>
       </c>
       <c r="C35" t="n">
-        <v>2.7320132</v>
+        <v>2.0836645</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -8287,41 +7537,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/101.9133864,2.7320132_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.9561918,2.0836645_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/101.9133864,2.7320132_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9561918,2.0836645_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/101.9133864,2.7320132_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9561918,2.0836645_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/101.9133864,2.7320132_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9561918,2.0836645_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/101.9133864,2.7320132_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9561918,2.0836645_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>102.0388666_2.7414643_10150_0270_35</t>
+          <t>101.7574509_3.0867228_10150_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.0388666</v>
+        <v>101.7574509</v>
       </c>
       <c r="C36" t="n">
-        <v>2.7414643</v>
+        <v>3.0867228</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -8330,41 +7580,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/102.0388666,2.7414643_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.7574509,3.0867228_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/102.0388666,2.7414643_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.7574509,3.0867228_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/102.0388666,2.7414643_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.7574509,3.0867228_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/102.0388666,2.7414643_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.7574509,3.0867228_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/102.0388666,2.7414643_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.7574509,3.0867228_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>101.9837149_2.5186540_10150_0270_36</t>
+          <t>101.6549846_2.0755736_10150_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.9837149</v>
+        <v>101.6549846</v>
       </c>
       <c r="C37" t="n">
-        <v>2.518654</v>
+        <v>2.0755736</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -8373,41 +7623,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/101.9837149,2.5186540_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.6549846,2.0755736_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/101.9837149,2.5186540_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.6549846,2.0755736_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/101.9837149,2.5186540_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.6549846,2.0755736_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/101.9837149,2.5186540_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.6549846,2.0755736_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/101.9837149,2.5186540_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.6549846,2.0755736_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>101.9672428_2.1988270_10150_0270_37</t>
+          <t>101.5732980_2.1469146_10150_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.9672428</v>
+        <v>101.573298</v>
       </c>
       <c r="C38" t="n">
-        <v>2.198827</v>
+        <v>2.1469146</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -8416,41 +7666,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/101.9672428,2.1988270_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.5732980,2.1469146_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/101.9672428,2.1988270_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.5732980,2.1469146_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/101.9672428,2.1988270_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.5732980,2.1469146_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/101.9672428,2.1988270_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.5732980,2.1469146_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/101.9672428,2.1988270_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.5732980,2.1469146_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>101.9561918_2.0836645_10150_0270_38</t>
+          <t>101.4762234_2.7105831_10150_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.9561918</v>
+        <v>101.4762234</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0836645</v>
+        <v>2.7105831</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -8459,41 +7709,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/101.9561918,2.0836645_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.4762234,2.7105831_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/101.9561918,2.0836645_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.4762234,2.7105831_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/101.9561918,2.0836645_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.4762234,2.7105831_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/101.9561918,2.0836645_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.4762234,2.7105831_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/101.9561918,2.0836645_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.4762234,2.7105831_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>101.7574509_3.0867228_10150_0270_39</t>
+          <t>101.3333560_3.0085720_10150_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.7574509</v>
+        <v>101.333356</v>
       </c>
       <c r="C40" t="n">
-        <v>3.0867228</v>
+        <v>3.008572</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -8502,41 +7752,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/101.7574509,3.0867228_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.3333560,3.0085720_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/101.7574509,3.0867228_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.3333560,3.0085720_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/101.7574509,3.0867228_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.3333560,3.0085720_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/101.7574509,3.0867228_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.3333560,3.0085720_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/101.7574509,3.0867228_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.3333560,3.0085720_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>101.6549846_2.0755736_10150_0270_40</t>
+          <t>101.2432590_2.8860562_10150_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.6549846</v>
+        <v>101.243259</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0755736</v>
+        <v>2.8860562</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -8545,41 +7795,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/101.6549846,2.0755736_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.2432590,2.8860562_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/101.6549846,2.0755736_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.2432590,2.8860562_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/101.6549846,2.0755736_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.2432590,2.8860562_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/101.6549846,2.0755736_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.2432590,2.8860562_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/101.6549846,2.0755736_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.2432590,2.8860562_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>101.5732980_2.1469146_10150_0270_41</t>
+          <t>101.2112266_2.8523826_10150_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.573298</v>
+        <v>101.2112266</v>
       </c>
       <c r="C42" t="n">
-        <v>2.1469146</v>
+        <v>2.8523826</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -8588,41 +7838,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/101.5732980,2.1469146_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.2112266,2.8523826_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/101.5732980,2.1469146_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.2112266,2.8523826_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/101.5732980,2.1469146_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.2112266,2.8523826_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/101.5732980,2.1469146_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.2112266,2.8523826_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/101.5732980,2.1469146_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.2112266,2.8523826_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>101.4762234_2.7105831_10150_0270_42</t>
+          <t>101.0469534_3.0411659_10150_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.4762234</v>
+        <v>101.0469534</v>
       </c>
       <c r="C43" t="n">
-        <v>2.7105831</v>
+        <v>3.0411659</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -8631,41 +7881,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/101.4762234,2.7105831_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.0469534,3.0411659_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/101.4762234,2.7105831_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.0469534,3.0411659_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/101.4762234,2.7105831_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.0469534,3.0411659_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/101.4762234,2.7105831_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.0469534,3.0411659_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/101.4762234,2.7105831_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.0469534,3.0411659_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>101.1889279_3.2613769_10150_0270_43</t>
+          <t>101.0169092_3.0473209_10150_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.1889279</v>
+        <v>101.0169092</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2613769</v>
+        <v>3.0473209</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -8674,41 +7924,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/101.1889279,3.2613769_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.0169092,3.0473209_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/101.1889279,3.2613769_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.0169092,3.0473209_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/101.1889279,3.2613769_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.0169092,3.0473209_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/101.1889279,3.2613769_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.0169092,3.0473209_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/101.1889279,3.2613769_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.0169092,3.0473209_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>101.2346802_3.1977211_10150_0270_44</t>
+          <t>101.0568032_3.0330028_10150_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.2346802</v>
+        <v>101.0568032</v>
       </c>
       <c r="C45" t="n">
-        <v>3.1977211</v>
+        <v>3.0330028</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -8717,41 +7967,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/101.2346802,3.1977211_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.0568032,3.0330028_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/101.2346802,3.1977211_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.0568032,3.0330028_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/101.2346802,3.1977211_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.0568032,3.0330028_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/101.2346802,3.1977211_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.0568032,3.0330028_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/101.2346802,3.1977211_10150_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.0568032,3.0330028_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>101.3333560_3.0085720_10150_0270_45</t>
+          <t>101.6899069_2.9827430_10150_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.333356</v>
+        <v>101.6899069</v>
       </c>
       <c r="C46" t="n">
-        <v>3.008572</v>
+        <v>2.982743</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -8760,283 +8010,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/101.3333560,3.0085720_10150_0270_RGB-composite.jpeg</t>
+          <t>cuts/101.6899069,2.9827430_10150_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/101.3333560,3.0085720_10150_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/101.6899069,2.9827430_10150_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/101.3333560,3.0085720_10150_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/101.6899069,2.9827430_10150_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/101.3333560,3.0085720_10150_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.6899069,2.9827430_10150_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
-        <is>
-          <t>cuts/101.3333560,3.0085720_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>101.2432590_2.8860562_10150_0270_46</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>101.243259</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.8860562</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>cuts/101.2432590,2.8860562_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>cuts/101.2432590,2.8860562_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>cuts/101.2432590,2.8860562_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>cuts/101.2432590,2.8860562_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>cuts/101.2432590,2.8860562_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>101.2112266_2.8523826_10150_0270_47</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>101.2112266</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.8523826</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>cuts/101.2112266,2.8523826_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>cuts/101.2112266,2.8523826_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>cuts/101.2112266,2.8523826_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>cuts/101.2112266,2.8523826_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>cuts/101.2112266,2.8523826_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>101.0469534_3.0411659_10150_0270_48</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>101.0469534</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3.0411659</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>cuts/101.0469534,3.0411659_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>cuts/101.0469534,3.0411659_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>cuts/101.0469534,3.0411659_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>cuts/101.0469534,3.0411659_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>cuts/101.0469534,3.0411659_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>101.0169092_3.0473209_10150_0270_49</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>101.0169092</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.0473209</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>cuts/101.0169092,3.0473209_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>cuts/101.0169092,3.0473209_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>cuts/101.0169092,3.0473209_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>cuts/101.0169092,3.0473209_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>cuts/101.0169092,3.0473209_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>101.0568032_3.0330028_10150_0270_50</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>101.0568032</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.0330028</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>cuts/101.0568032,3.0330028_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>cuts/101.0568032,3.0330028_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>cuts/101.0568032,3.0330028_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>cuts/101.0568032,3.0330028_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>cuts/101.0568032,3.0330028_10150_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>101.6899069_2.9827430_10150_0270_51</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>101.6899069</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.982743</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>cuts/101.6899069,2.9827430_10150_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>cuts/101.6899069,2.9827430_10150_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>cuts/101.6899069,2.9827430_10150_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>cuts/101.6899069,2.9827430_10150_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>cuts/101.6899069,2.9827430_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -9053,7 +8045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R652"/>
+  <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9122,343 +8114,301 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>101.9214222_3.0975440_10150_0270_3</t>
+          <t>102.0294670_2.9753619_10150_0270_3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>102.0294670_2.9753619_10150_0270_4</t>
+          <t>101.3184548_2.8876000_10150_0270_4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>101.3184548_2.8876000_10150_0270_5</t>
+          <t>101.2881732_2.7488984_10150_0270_5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>101.2881732_2.7488984_10150_0270_6</t>
+          <t>101.3385569_2.8037395_10150_0270_6</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>101.3385569_2.8037395_10150_0270_7</t>
+          <t>101.4871072_2.2408834_10150_0270_7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>101.4871072_2.2408834_10150_0270_8</t>
+          <t>101.4650908_2.2569459_10150_0270_8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>101.4650908_2.2569459_10150_0270_9</t>
+          <t>101.4471628_2.2637489_10150_0270_9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>101.4471628_2.2637489_10150_0270_10</t>
+          <t>101.5779798_2.8545142_10150_0270_10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>101.5779798_2.8545142_10150_0270_11</t>
+          <t>100.9992993_2.9361912_10150_0270_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>100.9992993_2.9361912_10150_0270_12</t>
+          <t>101.7508663_2.7223908_10150_0270_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>101.0177674_3.2457972_10150_0270_13</t>
+          <t>101.7205464_2.5503922_10150_0270_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>101.7508663_2.7223908_10150_0270_14</t>
+          <t>101.2694750_2.9408816_10150_0270_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>101.7205464_2.5503922_10150_0270_15</t>
+          <t>101.4613825_2.8667681_10150_0270_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>101.2694750_2.9408816_10150_0270_16</t>
+          <t>101.4309978_2.3688916_10150_0270_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>101.4613825_2.8667681_10150_0270_17</t>
+          <t>101.8623914_2.8355202_10150_0270_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>101.6316739_3.1260532_10150_0270_18</t>
+          <t>101.8926369_2.8564578_10150_0270_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>101.7809287_3.1650095_10150_0270_19</t>
+          <t>101.5869932_2.8851802_10150_0270_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>101.4309978_2.3688916_10150_0270_20</t>
+          <t>101.5257473_2.7957830_10150_0270_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>101.8623914_2.8355202_10150_0270_21</t>
+          <t>101.3489060_2.7769071_10150_0270_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>101.8926369_2.8564578_10150_0270_22</t>
+          <t>101.4571977_2.8392494_10150_0270_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>101.5869932_2.8851802_10150_0270_23</t>
+          <t>101.3237074_2.7939040_10150_0270_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>101.5257473_2.7957830_10150_0270_24</t>
+          <t>101.2065033_3.0625480_10150_0270_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>101.3489060_2.7769071_10150_0270_25</t>
+          <t>102.0380896_2.0966820_10150_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>101.4571977_2.8392494_10150_0270_26</t>
+          <t>101.5978543_2.3024406_10150_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>101.3237074_2.7939040_10150_0270_27</t>
+          <t>101.5198769_2.3082777_10150_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>101.2065033_3.0625480_10150_0270_28</t>
+          <t>101.4391987_2.3761373_10150_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>102.0380896_2.0966820_10150_0270_29</t>
+          <t>101.8698737_2.8526940_10150_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>101.5978543_2.3024406_10150_0270_30</t>
+          <t>101.9133864_2.7320132_10150_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>101.5198769_2.3082777_10150_0270_31</t>
+          <t>102.0388666_2.7414643_10150_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>101.4391987_2.3761373_10150_0270_32</t>
+          <t>101.9837149_2.5186540_10150_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>101.8698737_2.8526940_10150_0270_33</t>
+          <t>101.9672428_2.1988270_10150_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>101.9133864_2.7320132_10150_0270_34</t>
+          <t>101.9561918_2.0836645_10150_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>102.0388666_2.7414643_10150_0270_35</t>
+          <t>101.7574509_3.0867228_10150_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>101.9837149_2.5186540_10150_0270_36</t>
+          <t>101.6549846_2.0755736_10150_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>101.9672428_2.1988270_10150_0270_37</t>
+          <t>101.5732980_2.1469146_10150_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>101.9561918_2.0836645_10150_0270_38</t>
+          <t>101.4762234_2.7105831_10150_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>101.7574509_3.0867228_10150_0270_39</t>
+          <t>101.3333560_3.0085720_10150_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>101.6549846_2.0755736_10150_0270_40</t>
+          <t>101.2432590_2.8860562_10150_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>101.5732980_2.1469146_10150_0270_41</t>
+          <t>101.2112266_2.8523826_10150_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>101.4762234_2.7105831_10150_0270_42</t>
+          <t>101.0469534_3.0411659_10150_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>101.1889279_3.2613769_10150_0270_43</t>
+          <t>101.0169092_3.0473209_10150_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>101.2346802_3.1977211_10150_0270_44</t>
+          <t>101.0568032_3.0330028_10150_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>101.3333560_3.0085720_10150_0270_45</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>101.2432590_2.8860562_10150_0270_46</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>101.2112266_2.8523826_10150_0270_47</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>101.0469534_3.0411659_10150_0270_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>101.0169092_3.0473209_10150_0270_49</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>101.0568032_3.0330028_10150_0270_50</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>101.6899069_2.9827430_10150_0270_51</t>
+          <t>101.6899069_2.9827430_10150_0270_45</t>
         </is>
       </c>
     </row>

--- a/10150_0270.xlsx
+++ b/10150_0270.xlsx
@@ -6044,7 +6044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6098,6 +6098,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6141,6 +6221,54 @@
           <t>cuts/101.8959563,2.2897525_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6184,6 +6312,54 @@
           <t>cuts/101.5164004,2.2108888_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6227,6 +6403,54 @@
           <t>cuts/102.0294670,2.9753619_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6270,6 +6494,54 @@
           <t>cuts/101.3184548,2.8876000_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6313,6 +6585,54 @@
           <t>cuts/101.2881732,2.7488984_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6356,6 +6676,54 @@
           <t>cuts/101.3385569,2.8037395_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6399,6 +6767,54 @@
           <t>cuts/101.4871072,2.2408834_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6442,6 +6858,54 @@
           <t>cuts/101.4650908,2.2569459_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6485,6 +6949,54 @@
           <t>cuts/101.4471628,2.2637489_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6528,6 +7040,54 @@
           <t>cuts/101.5779798,2.8545142_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6571,6 +7131,54 @@
           <t>cuts/100.9992993,2.9361912_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6614,6 +7222,54 @@
           <t>cuts/101.7508663,2.7223908_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6657,6 +7313,54 @@
           <t>cuts/101.7205464,2.5503922_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6700,6 +7404,54 @@
           <t>cuts/101.2694750,2.9408816_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6743,6 +7495,54 @@
           <t>cuts/101.4613825,2.8667681_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6786,6 +7586,54 @@
           <t>cuts/101.4309978,2.3688916_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6829,6 +7677,54 @@
           <t>cuts/101.8623914,2.8355202_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6872,6 +7768,54 @@
           <t>cuts/101.8926369,2.8564578_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6915,6 +7859,54 @@
           <t>cuts/101.5869932,2.8851802_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6958,6 +7950,54 @@
           <t>cuts/101.5257473,2.7957830_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7001,6 +8041,54 @@
           <t>cuts/101.3489060,2.7769071_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7044,6 +8132,54 @@
           <t>cuts/101.4571977,2.8392494_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7087,6 +8223,54 @@
           <t>cuts/101.3237074,2.7939040_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7130,6 +8314,54 @@
           <t>cuts/101.2065033,3.0625480_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7173,6 +8405,54 @@
           <t>cuts/102.0380896,2.0966820_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7216,6 +8496,54 @@
           <t>cuts/101.5978543,2.3024406_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7259,6 +8587,54 @@
           <t>cuts/101.5198769,2.3082777_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7302,6 +8678,54 @@
           <t>cuts/101.4391987,2.3761373_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7345,6 +8769,54 @@
           <t>cuts/101.8698737,2.8526940_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7388,6 +8860,54 @@
           <t>cuts/101.9133864,2.7320132_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7431,6 +8951,54 @@
           <t>cuts/102.0388666,2.7414643_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7474,6 +9042,54 @@
           <t>cuts/101.9837149,2.5186540_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>7</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7517,6 +9133,54 @@
           <t>cuts/101.9672428,2.1988270_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>7</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7560,6 +9224,54 @@
           <t>cuts/101.9561918,2.0836645_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>7</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7603,6 +9315,54 @@
           <t>cuts/101.7574509,3.0867228_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7646,6 +9406,54 @@
           <t>cuts/101.6549846,2.0755736_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7689,6 +9497,54 @@
           <t>cuts/101.5732980,2.1469146_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7732,6 +9588,54 @@
           <t>cuts/101.4762234,2.7105831_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7775,6 +9679,54 @@
           <t>cuts/101.3333560,3.0085720_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>7</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7818,6 +9770,54 @@
           <t>cuts/101.2432590,2.8860562_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7861,6 +9861,54 @@
           <t>cuts/101.2112266,2.8523826_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>7</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7904,6 +9952,54 @@
           <t>cuts/101.0469534,3.0411659_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7947,6 +10043,54 @@
           <t>cuts/101.0169092,3.0473209_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7990,6 +10134,54 @@
           <t>cuts/101.0568032,3.0330028_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>7</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.417808</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8032,6 +10224,54 @@
         <is>
           <t>cuts/101.6899069,2.9827430_10150_0270_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J46" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10.7286</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.502</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.320132</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.52508</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.451099</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>12.0626</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>7</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.40411</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.417808</v>
       </c>
     </row>
   </sheetData>
